--- a/products.xlsx
+++ b/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rystadenergy0-my.sharepoint.com/personal/tushar_srivastava_rystadenergy_com/Documents/Personal/CodeBase/Tofaa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RESourceCode\Personal\Tofaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10485DE9DE5CFE5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE1A39D-1211-4377-9B9B-F7CB14F31DDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0980E005-B466-4864-BE49-832A6D50DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Product Code</t>
   </si>
@@ -36,19 +36,31 @@
     <t>H001</t>
   </si>
   <si>
-    <t>images/H001.png</t>
-  </si>
-  <si>
     <t>H002</t>
   </si>
   <si>
-    <t>images/H002.png</t>
-  </si>
-  <si>
     <t>H003</t>
   </si>
   <si>
-    <t>images/H003.png</t>
+    <t>images/H001.jpeg</t>
+  </si>
+  <si>
+    <t>images/H002.jpeg</t>
+  </si>
+  <si>
+    <t>images/H003.jpeg</t>
+  </si>
+  <si>
+    <t>Pop-It Hamper</t>
+  </si>
+  <si>
+    <t>Fuljhadi Hamper</t>
+  </si>
+  <si>
+    <t>Dhamaka Hamper</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -100,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,47 +393,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
